--- a/Bike sales Dataset (Autosaved).xlsx
+++ b/Bike sales Dataset (Autosaved).xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wale\Desktop\Project for Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9150" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
       <name val="Open Sans Condensed"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +536,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -697,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,6 +717,7 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -787,7 +794,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1008,11 +1015,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="258535056"/>
-        <c:axId val="258533880"/>
+        <c:axId val="258702480"/>
+        <c:axId val="258699344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="258535056"/>
+        <c:axId val="258702480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258533880"/>
+        <c:crossAx val="258699344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1118,7 +1125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258533880"/>
+        <c:axId val="258699344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258535056"/>
+        <c:crossAx val="258702480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,7 +1336,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1590,11 +1597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="258535448"/>
-        <c:axId val="258534272"/>
+        <c:axId val="258701696"/>
+        <c:axId val="258700128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="258535448"/>
+        <c:axId val="258701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258534272"/>
+        <c:crossAx val="258700128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1705,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="258534272"/>
+        <c:axId val="258700128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258535448"/>
+        <c:crossAx val="258701696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,7 +1923,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2153,11 +2160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="259138560"/>
-        <c:axId val="259135816"/>
+        <c:axId val="258702088"/>
+        <c:axId val="258698952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259138560"/>
+        <c:axId val="258702088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259135816"/>
+        <c:crossAx val="258698952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259135816"/>
+        <c:axId val="258698952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259138560"/>
+        <c:crossAx val="258702088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,7 +2426,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable1</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable1</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -2430,13 +2437,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2444,13 +2457,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Avg</a:t>
+              <a:t>Avg Income per Gender</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Income per Gender</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2468,13 +2476,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2488,92 +2502,186 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -2598,13 +2706,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2652,13 +2789,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2699,13 +2865,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="259136992"/>
-        <c:axId val="259136208"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="260432144"/>
+        <c:axId val="260427440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="259136992"/>
+        <c:axId val="260432144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,11 +2884,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2751,11 +2916,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2773,11 +2937,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2791,9 +2955,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2804,7 +2967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259136208"/>
+        <c:crossAx val="260427440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259136208"/>
+        <c:axId val="260427440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,9 +2985,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2839,11 +3002,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2872,11 +3034,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2906,9 +3067,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2919,7 +3079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259136992"/>
+        <c:crossAx val="260432144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2930,14 +3090,13 @@
         <c:showKeys val="1"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2948,9 +3107,8 @@
             <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2988,9 +3146,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3007,17 +3164,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3064,7 +3232,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable2</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable2</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3075,16 +3243,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -3108,16 +3282,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3141,56 +3321,126 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd">
+          <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
           <c:size val="6"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="15875">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:ln w="22225" cap="rnd">
+          <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
           <c:size val="6"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="15875">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
         </c:marker>
       </c:pivotFmt>
@@ -3215,28 +3465,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -3303,28 +3588,63 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="15875">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -3386,11 +3706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260931328"/>
-        <c:axId val="260937600"/>
+        <c:axId val="260429400"/>
+        <c:axId val="260433712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260931328"/>
+        <c:axId val="260429400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,11 +3723,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3436,11 +3755,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3460,9 +3778,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3474,11 +3792,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3489,7 +3806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260937600"/>
+        <c:crossAx val="260433712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3497,12 +3814,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260937600"/>
+        <c:axId val="260433712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3510,11 +3841,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3543,11 +3873,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3577,9 +3906,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3590,22 +3918,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260931328"/>
+        <c:crossAx val="260429400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3630,9 +3948,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3649,17 +3966,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3706,7 +4034,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel Project 2 Dataset (Autosaved).xlsx]Pivot Table!PivotTable3</c:name>
+    <c:name>[Bike sales Dataset (Autosaved).xlsx]Pivot Table!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3717,13 +4045,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3731,13 +4065,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Customer</a:t>
+              <a:t>Customer Age Bracket</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Age Bracket</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3755,13 +4084,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3775,104 +4110,140 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -3896,16 +4267,64 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -3959,16 +4378,64 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -4015,12 +4482,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260935640"/>
-        <c:axId val="260934464"/>
+        <c:axId val="260432928"/>
+        <c:axId val="260434104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="260935640"/>
+        <c:axId val="260432928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,11 +4501,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -4066,11 +4533,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -4090,9 +4556,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4106,9 +4572,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4119,7 +4584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260934464"/>
+        <c:crossAx val="260434104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4127,7 +4592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260934464"/>
+        <c:axId val="260434104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4137,9 +4602,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4165,9 +4630,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4178,7 +4642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260935640"/>
+        <c:crossAx val="260432928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4208,9 +4672,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4227,17 +4690,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -6046,35 +6520,33 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6082,26 +6554,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -6110,9 +6590,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6131,14 +6610,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6147,35 +6618,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6187,30 +6658,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6226,21 +6698,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6250,20 +6719,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6274,17 +6743,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6293,14 +6762,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6312,28 +6780,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6345,17 +6807,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6364,17 +6825,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6383,17 +6844,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6402,27 +6862,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6430,11 +6889,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6442,14 +6911,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6461,12 +6930,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6475,14 +6951,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6491,9 +6966,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6503,7 +6977,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6511,9 +6985,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6524,9 +6998,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6536,54 +7009,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -6593,29 +7058,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6634,14 +7106,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6650,45 +7114,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6700,18 +7154,15 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6724,10 +7175,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6743,30 +7194,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6775,14 +7224,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6791,17 +7239,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6810,14 +7258,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6829,36 +7276,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6870,18 +7303,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6890,17 +7321,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6909,17 +7340,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6928,9 +7358,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6940,45 +7369,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6986,14 +7407,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7004,13 +7425,20 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7019,7 +7447,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -7034,9 +7462,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7046,20 +7473,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7068,9 +7494,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7080,55 +7505,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7136,26 +7546,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -7164,9 +7582,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7185,14 +7602,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -7201,45 +7610,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7251,31 +7650,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -7293,21 +7690,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7317,20 +7711,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7344,14 +7738,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7365,9 +7759,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7381,12 +7774,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7398,9 +7785,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7415,14 +7802,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7434,14 +7820,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7453,14 +7839,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7469,14 +7854,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7484,7 +7868,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7497,11 +7881,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7509,14 +7903,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7528,12 +7922,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7549,7 +7950,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7558,9 +7958,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7570,7 +7969,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7578,9 +7977,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7591,9 +7990,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7605,12 +8003,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -24211,7 +24603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -24506,7 +24898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A54:D59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -24681,7 +25073,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A26:D33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -70615,10 +71007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P6"/>
+  <dimension ref="A2:V20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="A2" sqref="A2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -70719,6 +71111,9 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
+    <row r="20" spans="22:22">
+      <c r="V20" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:P6"/>
